--- a/medicine/Enfance/Bang_Jeong-hwan/Bang_Jeong-hwan.xlsx
+++ b/medicine/Enfance/Bang_Jeong-hwan/Bang_Jeong-hwan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bang Jeong-hwan (방정환, 方定煥), né le 9 novembre 1899 et mort le 23 janvier 1931 (à 31 ans), est un auteur de littérature pour enfants qui s'est consacré à leur cause. Il est l'éditeur du premier magazine pour enfants de Corée et fondateur du « jour des enfants » (eorininal), fêté pour la première fois le 1er mai 1923 et qui de nos jours est célébré avec autant de faste que Noël en Europe.
 A une époque où les enfants sont considérés comme des êtres inférieurs, il s'engage pour que les enfants soient reconnus comme des personnes indépendantes dont on doit prendre soin et que l'on doit respecter et honorer. Dans sa « lettre ouverte aux adultes », il demandait de « ne pas considérer les enfants avec mépris et de s'adresser à eux avec respect et douceur ». 
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bang Jeong-hwan est né le 9 novembre 1899 à Séoul dans l'arrondissement de Jongno. A l'adolescence, il intègre une organisation cheondoïste, « la religion de la voie céleste ». Il étudie ensuite la philosophie et l'art des enfants à l'université de Tokyo ; à cette époque la Corée avait été annexée par le Japon.
 En 1921, il crée un groupe cheondoïste pour les enfants. Il publie une compilation de textes classiques adaptés pour les enfants en 1922 intitulée « cadeau d'amour » à l'intention des enfants qui souffrent de la misère et de l'occupation.
